--- a/PM_SSRS开发简要说明.xlsx
+++ b/PM_SSRS开发简要说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="19395" windowHeight="9150"/>
+    <workbookView xWindow="600" yWindow="180" windowWidth="19395" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1366,16 +1366,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>579</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>654844</xdr:colOff>
+      <xdr:row>616</xdr:row>
+      <xdr:rowOff>11908</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>389614</xdr:colOff>
-      <xdr:row>615</xdr:row>
-      <xdr:rowOff>65917</xdr:rowOff>
+      <xdr:colOff>353896</xdr:colOff>
+      <xdr:row>652</xdr:row>
+      <xdr:rowOff>77825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1392,7 +1392,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1107281" y="81676875"/>
+          <a:off x="1071563" y="102691408"/>
           <a:ext cx="7295239" cy="6066667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1698,6 +1698,50 @@
         <a:xfrm>
           <a:off x="8703469" y="31003875"/>
           <a:ext cx="6961905" cy="6933334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>579</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>303994</xdr:colOff>
+      <xdr:row>605</xdr:row>
+      <xdr:rowOff>6618</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1178719" y="96643032"/>
+          <a:ext cx="6447619" cy="4209524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1998,8 +2042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C579"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G317" sqref="G317"/>
+    <sheetView tabSelected="1" topLeftCell="A526" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q625" sqref="Q625"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
